--- a/postgres-fdw/postgres-fdw.xlsx
+++ b/postgres-fdw/postgres-fdw.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644B74D3-C4D0-48F5-9DD5-CCB819700127}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB08FF-002E-4F39-BD5C-8327CABC0227}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="8955" windowHeight="2400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="201">
   <si>
     <t>F.33. postgres_fdw</t>
   </si>
@@ -229,6 +229,499 @@
   </si>
   <si>
     <t>省略された場合、外部テーブルのカラム名が使用されます。</t>
+  </si>
+  <si>
+    <t>F.33.1.3. コスト推定オプション</t>
+  </si>
+  <si>
+    <t>postgres_fdwはリモートサーバに対するクエリを実行しリモートのデータを受信します。したがって、理想的には外部テーブルをスキャンする推定コストは、それをリモートサーバで実行するコストと通信オーバーヘッドの和となります。 この推定を行うための最も信頼できる方法は、リモートサーバに問い合わせを行い、その結果にオーバーヘッド分を加算する事ですが、小さいクエリではコスト推定を得るための追加的な問い合わせに要するコストに見合わないかもしれません。 そこで、どのようにコスト推定を行うかを制御するため、postgres_fdwは以下のようなオプションを提供します。</t>
+  </si>
+  <si>
+    <t>use_remote_estimate</t>
+  </si>
+  <si>
+    <t>fdw_startup_cost</t>
+  </si>
+  <si>
+    <t>fdw_tuple_cost</t>
+  </si>
+  <si>
+    <t>外部テーブルまたは外部サーバに指定できるこのオプションは、コスト推定を得るためにpostgres_fdwがリモートのEXPLAINコマンドを</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発行するかどうかを制御します。 外部テーブルに対する設定は、関連付けられた外部サーバに対する設定を上書きしますが、その効果は当該外部テーブルに限定されます。 デフォルト値はfalseです。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外部テーブルまたは外部サーバに指定できるこのオプションは、当該外部サーバに関連付けられた全ての外部テーブルスキャンの推定開始コストに加算される数値です。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは、接続の確立、リモート側でのクエリのパース・最適化など、追加的なオーバーヘッドを表現します。 デフォルト値は100です。</t>
+  </si>
+  <si>
+    <t>外部サーバに指定できるこのオプションは、このサーバでの外部テーブルのスキャンにおいて、各タプル毎に発生する追加的なコストとして使用される数値です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> これは、サーバ間のデータ転送における追加的なオーバーヘッドを表現し、リモートサーバへのネットワーク遅延の高低を</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>反映するためにこの数値を増減することができます。 デフォルト値は0.01です。</t>
+  </si>
+  <si>
+    <t>use_remote_estimateがtrueの時、postgres_fdwはリモートサーバから行数とコスト推定値を取得し、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それをfdw_startup_costとfdw_tuple_costに加算します。 一方、use_remote_estimateがfalseの時、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">postgres_fdwはローカルの行数とコスト推定値を取得しfdw_startup_costとfdw_tuple_costをコスト推定値に加算します。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このローカルな推定は、リモートテーブルの統計情報のローカルコピーが利用可能でないと、正確である見込みはほとんどありません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>あたかもローカルなテーブルであるかのように統計情報の計算と保存を行います。 ローカルな統計情報を保存する事で、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クエリの度にリモートテーブルの実行計画を作成するオーバヘッドを削減する事ができます。 しかしながら、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リモートテーブルの更新頻度が高ければローカルの統計情報はすぐに実態を反映しなくなるでしょう。</t>
+  </si>
+  <si>
+    <t>ローカルな統計情報を更新するには外部テーブルに対するANALYZEを実行します。これはリモートテーブルに対するスキャンを実行し、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F.33.1.4. リモート実行オプション</t>
+  </si>
+  <si>
+    <t>extensions</t>
+  </si>
+  <si>
+    <t>fetch_size</t>
+  </si>
+  <si>
+    <t>デフォルトでは、組み込みの演算子および関数を使ったWHERE句のみがリモートサーバでの実行を考慮されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 組み込みでない関数を含む句は、行が取得された後、ローカルで検査されます。 そのような関数がリモートサーバで利用でき、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かつローカルで実行するのと同じ結果を生成すると信頼できるときは、そのようなWHERE句をリモートでの実行のために送出することで</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パフォーマンスを向上することができます。 この動作は以下のオプションを使うことで制御できます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">このオプションは、PostgreSQLの拡張で、ローカルとリモートの両方に、互換のバージョンがインストールされているものの名前のリストです。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IMMUTABLEで、列挙された拡張に属する関数と演算子は、リモートサーバに送出可能とみなされます。 このオプションは外部サーバについてのみ指定可能で、テーブル毎の指定ではありません。</t>
+  </si>
+  <si>
+    <t>extensionsオプションを使用する場合、列挙する拡張が存在し、かつローカルとリモートのサーバで同一の動作をするようにすることは</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザの責任です。 そうでない場合、リモートの問い合わせは失敗したり、期待と異なる動作をするかもしれません。</t>
+  </si>
+  <si>
+    <t>このオプションは、postgres_fdwが1回のフェッチの動作で何行のデータを取得するかを指定します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サーバに対して指定されたオプションよりも優先します。 デフォルトは100です。</t>
+  </si>
+  <si>
+    <t>これは外部テーブルあるいは外部サーバに対して指定できます。 テーブルに対して指定されたオプションは、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F.33.1.5. 更新機能オプション</t>
+  </si>
+  <si>
+    <t>updatable</t>
+  </si>
+  <si>
+    <t>デフォルトではpostgres_fdwを使用する全ての外部テーブルは更新可能であると想定されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>以下のオプションにより、この挙動を上書きする事ができます。</t>
+  </si>
+  <si>
+    <t>このオプションは、postgres_fdwがINSERT、UPDATEあるいはDELETEコマンドを使用して外部テーブルを操作する事を</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>許可するかどうかを規定します。 外部テーブルで指定されたオプションは、外部サーバにおいて指定されたオプションを上書きします。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> デフォルト値はtrueです。</t>
+  </si>
+  <si>
+    <t>もちろん、リモートテーブルが実際には更新可能ではなかった場合、いずれにしてもエラーが発生するでしょう。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">このオプションを使用することで、リモートサーバへの問い合わせを行う事なくローカルでエラーを発生させることができます。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また、information_schemaビューは、このオプションの値に従ってpostgres_fdw管理下の外部テーブルを更新可能（あるいは不可能）であると</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レポートする事に留意してください。 リモートサーバ側のチェックは一切行われません。</t>
+  </si>
+  <si>
+    <t>F.33.1.6. インポートのオプション</t>
+  </si>
+  <si>
+    <t>インポートの動作は以下のオプションでカスタマイズできます（IMPORT FOREIGN SCHEMAコマンドで指定します）。</t>
+  </si>
+  <si>
+    <t>import_collate</t>
+  </si>
+  <si>
+    <t>import_default</t>
+  </si>
+  <si>
+    <t>import_not_null</t>
+  </si>
+  <si>
+    <t>postgres_fdwはIMPORT FOREIGN SCHEMAを使って、外部テーブルの定義をインポートすることができます。 このコマンドは、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">リモートのサーバ上に存在するテーブルあるいはビューとマッチする外部テーブルの定義をローカルサーバ上に作成します。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インポートするリモートのテーブルにユーザ定義のデータ型の列がある場合、ローカルサーバにも同じ名前の互換性のある型がなければなりません。</t>
+  </si>
+  <si>
+    <t>このオプションは、列のCOLLATEオプションが、外部サーバからインポートする外部テーブルの定義に含まれているかどうかを制御します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> デフォルトはtrueです。 リモートサーバとローカルサーバで照合順序の名前の集合が異なる場合は、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この設定を無効にする必要があるでしょう。 リモートサーバが異なるOSで動作しているなら、そういうことがありそうです。</t>
+  </si>
+  <si>
+    <t>このオプションは、列のDEFAULT式が外部サーバからインポートされる外部テーブルの定義に含まれているかどうかを制御します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> デフォルトはfalseです。 このオプションを有効にする場合は、ローカルサーバとリモートサーバで異なる計算をされるデフォルトに注意して下さい。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> nextval()はよくある問題の一つです。 インポートされるデフォルト式がローカルには存在しない関数または演算子を使っていた場合、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IMPORTは失敗します。</t>
+  </si>
+  <si>
+    <t>このオプションは、列のNOT NULL制約が、外部サーバからインポートされる外部テーブルの定義に含まれているかどうかを制御します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> デフォルトはtrueです。</t>
+  </si>
+  <si>
+    <t>NOT NULL以外の制約は決してリモートのテーブルからインポートされないことに注意して下さい。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PostgreSQLは外部テーブルのCHECK制約をサポートしていますが、それを自動的にインポートする予定はありません。 なぜなら、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制約の式はローカルとリモートのサーバで異なる評価をされる危険があるからです。 CHECK制約でそのような一貫しない動作があると、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問い合わせの最適化で検知するのが難しい誤りが発生するかもしれません。 そのため、CHECK制約をインポートしたい場合は、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他のテーブルのパーティションであるテーブルや外部テーブルは、自動的に除外されます。 パーティション化されたテーブルは、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それを手作業で実行する必要があり、またその一つ一つの意味を注意深く確認するべきです。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 外部テーブルのCHECK制約の取扱いについて、詳しくはCREATE FOREIGN TABLEを参照して下さい。</t>
+  </si>
+  <si>
+    <t>他のテーブルのパーティションでない限り、インポートされます。 パーティション化階層のルートであるパーティションテーブルを介して</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべてのデータにアクセスできるため、この方法では余分なオブジェクトを作成せずにすべてのデータにアクセスできます。</t>
+  </si>
+  <si>
+    <t>F.33.2. 接続管理</t>
+  </si>
+  <si>
+    <t>F.33.3. トランザクション管理</t>
+  </si>
+  <si>
+    <t>postgres_fdwは今のところ、二相コミットのためのリモートトランザクションの準備をサポートしていないことに注意して下さい。</t>
+  </si>
+  <si>
+    <t>postgres_fdwは、外部サーバに関連付けられた外部テーブルを参照するクエリを最初に実行する際に、外部サーバへの接続を確立します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（ユーザマッピング）が使用される場合には、接続はユーザマッピング毎に確立される事になります。</t>
+  </si>
+  <si>
+    <t>外部サーバ上のリモートテーブルを参照する際に、まだトランザクションが開始されていなければpostgres_fdwはリモートサーバ上でトランザクションを開始します。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ローカルのトランザクションがコミット、あるいはアボートした時、リモートのトランザクションも同様にコミット、あるいはアボートします。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>セーブポイントも同様に管理され、リモート側に関連付けられたセーブポイントが作成されます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローカルトランザクションがSERIALIZABLE分離レベルを用いている時、リモートトランザクションもSERIALIZABLE分離レベルを使用します。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それ以外の場合にはREPEATABLE READ分離レベルを使用します。 これは、あるクエリが複数のテーブルスキャンをリモート側で行う際に、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>確実に全てのスキャンにおいて一貫したスナップショットで結果を取り出すためです。 その結果、別の要求によってリモートサーバ側で競合する更新が</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">発生したとしても、あるトランザクション内の問い合わせはリモートサーバからの一貫したデータを参照する事となります。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローカルのトランザクションがSERIALIZABLEあるいはREPEATABLE READ分離レベルを用いている場合、この動作は期待通りのものでしょう。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>将来のPostgreSQLリリースではこれらのルールに変更が加えられるかもしれません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一方、ローカルのトランザクションがREAD COMMITTED分離レベルを使用している場合には、予想外の動作かもしれません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この接続は保持され、同じセッションで以降の問い合わせのために再利用されます。 しかし、外部サーバへのアクセスに対して複数のユーザ識別子</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>F.33.4. リモート問い合わせの最適化</t>
+  </si>
+  <si>
+    <t>同一の外部サーバ上の外部テーブルの間の結合がある場合、postgres_fdwはその結合全体を外部サーバに送出します。 ただし、何らかの理由で各テーブルから個別に行を取得する方が効率的だと思われる場合、あるいは結合に含まれるテーブルの参照が異なるユーザマッピングに従う場合を除きます。 JOIN句を送出するにあたり、WHERE句に関して上で説明したことと同じ注意が払われます。</t>
+  </si>
+  <si>
+    <t>リモートサーバでの実行のために実際に送出される問い合わせはEXPLAIN VERBOSEを用いて調べる事ができます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外部サーバからのデータ転送量を削減するため、postgres_fdwはリモート問い合わせを最適化しようと試みます。 </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>これは問い合わせのWHERE句をリモートサーバに送出する事、およびクエリで必要とされていないカラムを取得しない事により行われます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 問い合わせの誤作動のリスクを下げるため、組み込みあるいは外部サーバのextensionsオプションに列挙されている拡張に属するデータ型、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>演算子、関数だけを用いたものでない限り、リモートサーバにWHERE句は送出されません。 また、そのようなWHERE句で使われる演算子と</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>関数はIMMUTABLEでなければなりません。 UPDATEあるいはDELETEの問い合わせについては、リモートサーバに送出できないWHERE句がなく、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問い合わせにローカルな結合がなく、対象のテーブルにローカルな行レベルのBEFOREあるいはAFTERトリガーや格納された生成列がなく、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>親ビューからのCHECK OPTION制約がないのであれば、postgres_fdwは問い合わせ全体をリモートサーバに送出することで、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問い合わせの実行の最適化を図ります。 UPDATEでは、問い合わせの誤った実行のリスクを低減するため、対象列への代入式では組み込みのデータ型、IMMUTABLE演算子、IMMUTABLE関数のみを使わなければなりません。</t>
+  </si>
+  <si>
+    <t>F.33.5. リモート問い合わせ実行環境</t>
+  </si>
+  <si>
+    <t>postgres_fdwは、同様に様々なパラメータでリモートセッション設定を確立します。</t>
+  </si>
+  <si>
+    <t>TimeZoneはUTCに設定されます。</t>
+  </si>
+  <si>
+    <t>DateStyleはISOに設定されます。</t>
+  </si>
+  <si>
+    <t>IntervalStyleはpostgresに設定されます。</t>
+  </si>
+  <si>
+    <t>extra_float_digitsはリモートサーバが9.0以上では3に設定され、それより古いバージョンでは2に設定されます。</t>
+  </si>
+  <si>
+    <t>これはsearch_pathほど問題にはならないでしょうが、もし必要になったら関数のSETオプションで処理してください。</t>
+  </si>
+  <si>
+    <t>postgres_fdwが開いたリモートセッションでは、search_pathパラメータはpg_catalogにだけ設定されますので、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキーマで修飾しなければ組み込みオブジェクトだけが可視です。 postgres_fdw自身が生成した問い合わせでは、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>常にそのような修飾を行ないますので、これは問題になりません。 しかし、リモートテーブルのトリガやルールによってリモートサーバ上で</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実行された関数にとっては問題の原因となり得ます。 例えば、リモートテーブルが実際にはビューであれば、そのビューで使われている関数は</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべて制限された検索パスで実行されるでしょう。 期待される検索パス環境を確立できるよう、そのような関数では名前はすべてスキーマ修飾するか、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>そのような関数にSET search_pathオプション(CREATE FUNCTION参照)を付けることをお薦めします。</t>
+  </si>
+  <si>
+    <t>上のパラメータのセッションレベルの設定を変更することで、この振舞いを覆すことはお薦めしません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t> postgres_fdwが正常に動作しない原因となるでしょう。</t>
+  </si>
+  <si>
+    <t>F.33.6. バージョン間互換性</t>
+  </si>
+  <si>
+    <t>postgres_fdwのリモートサーバにはPostgreSQL 8.3以降のバージョンを使用する事ができます。 読み取り専用であれば、</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8.1以降のバージョンまで可能です。 一方、postgres_fdwはIMMUTABLE属性を持った組み込みの演算子と関数が外部テーブルの</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WHERE句に含まれる場合、リモート側で実行しても安全であると仮定します。そのため、リモートサーバのリリース後に追加された関数が</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実行のために送出されるかもしれず、結果として「関数が見つかりません」あるいは類するエラーを発生させる事になります。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> この種の問題は問い合わせの書き換えによって対処する事ができます。 例えば、最適化を妨げるため、外部テーブルへの参照を</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OFFSET 0を付けて副問い合わせに埋め込み、問題のある関数や演算子を副問い合わせの外に配置するなどの方法があります。</t>
+  </si>
+  <si>
+    <t>F.33.7. 例</t>
+  </si>
+  <si>
+    <t>これはpostgres_fdwで外部テーブルを作成する例です。 まず、拡張をインストールします。</t>
+  </si>
+  <si>
+    <t>CREATE EXTENSION postgres_fdw;</t>
+  </si>
+  <si>
+    <t>次に、CREATE SERVERを使って外部サーバを作成します。 この例では、ホスト192.83.123.89でポート5432を監視しているPostgreSQLサーバに接続します。 接続されるデータベースはリモートサーバ上でforeign_dbという名前です。</t>
+  </si>
+  <si>
+    <t>CREATE SERVER foreign_server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        FOREIGN DATA WRAPPER postgres_fdw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        OPTIONS (host '192.83.123.89', port '5432', dbname 'foreign_db');</t>
+  </si>
+  <si>
+    <t>リモートサーバで使われるロールを特定するためにユーザマッピングも必要です。ユーザマッピングはCREATE USER MAPPINGで定義されます。</t>
+  </si>
+  <si>
+    <t>CREATE USER MAPPING FOR local_user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        SERVER foreign_server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        OPTIONS (user 'foreign_user', password 'password');</t>
+  </si>
+  <si>
+    <t>これでCREATE FOREIGN TABLEにより外部テーブルが作成できるようになりました。 この例では、リモートサーバのsome_schema.some_tableという名前のテーブルにアクセスします。 対応するローカルの名前はforeign_tableです。</t>
+  </si>
+  <si>
+    <t>CREATE FOREIGN TABLE foreign_table (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        id integer NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        data text</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        OPTIONS (schema_name 'some_schema', table_name 'some_table');</t>
+  </si>
+  <si>
+    <t>CREATE FOREIGN TABLEで宣言した列のデータ型やその他の属性は、実際のリモートテーブルと一致していることが必須です。 リモートテーブルでどのような名前なのかを個々の列に対してcolumn_nameオプションで指定しない限り、列名も一致していなければなりません。 多くの場合、外部テーブルの定義を手作業で作成するよりも、IMPORT FOREIGN SCHEMAを使用する方が望ましいです。</t>
+  </si>
+  <si>
+    <t>CREATE FOREIGN TABLEで宣言した列のデータ型やその他の属性は、実際のリモートテーブルと一致していることが必須です。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> リモートテーブルでどのような名前なのかを個々の列に対してcolumn_nameオプションで指定しない限り、列名も一致していなければなりません。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 多くの場合、外部テーブルの定義を手作業で作成するよりも、IMPORT FOREIGN SCHEMAを使用する方が望ましいです。</t>
   </si>
 </sst>
 </file>
@@ -285,7 +778,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,6 +803,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -323,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -331,6 +830,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -611,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:C66"/>
+  <dimension ref="B1:C225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A58" activeCellId="2" sqref="A64:XFD64 A61:XFD61 A58:XFD58"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -935,6 +1435,711 @@
         <v>59</v>
       </c>
     </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" s="7" customFormat="1">
+      <c r="B70" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" s="7" customFormat="1">
+      <c r="B73" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" s="7" customFormat="1">
+      <c r="B76" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" s="7" customFormat="1">
+      <c r="B97" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" s="7" customFormat="1">
+      <c r="B102" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" s="7" customFormat="1">
+      <c r="B110" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" s="7" customFormat="1">
+      <c r="B125" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" s="7" customFormat="1">
+      <c r="B129" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" s="7" customFormat="1">
+      <c r="B134" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3">
+      <c r="B177" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3">
+      <c r="B178" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3">
+      <c r="B179" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3">
+      <c r="B180" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3">
+      <c r="B181" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3">
+      <c r="B182" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3">
+      <c r="B184" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3">
+      <c r="C185" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3">
+      <c r="C186" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3">
+      <c r="C187" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3">
+      <c r="C188" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3">
+      <c r="B190" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3">
+      <c r="B192" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2">
+      <c r="B193" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2">
+      <c r="B195" s="4" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2">
+      <c r="B204" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" s="5" customFormat="1">
+      <c r="B205" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" s="5" customFormat="1">
+      <c r="B207" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" s="5" customFormat="1">
+      <c r="B208" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" s="5" customFormat="1">
+      <c r="B209" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" s="5" customFormat="1">
+      <c r="B211" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" s="5" customFormat="1">
+      <c r="B212" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" s="5" customFormat="1">
+      <c r="B213" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" s="5" customFormat="1">
+      <c r="B216" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" s="5" customFormat="1">
+      <c r="B217" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" s="5" customFormat="1">
+      <c r="B218" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" s="5" customFormat="1">
+      <c r="B219" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" s="5" customFormat="1">
+      <c r="B220" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" s="5" customFormat="1">
+      <c r="B221" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
